--- a/Cross-Validation SVM/1 - 30obs 10features/cross-validation results.xlsx
+++ b/Cross-Validation SVM/1 - 30obs 10features/cross-validation results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\Cross-Validation SVM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DIT\MaxStaffForDIT\4thYear\FinalYearProject\BehaviouralBiometricsPhoneLock\FYP\Cross-Validation SVM\1 - 30obs 10features\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>ν - Nu param</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>zeros</t>
-  </si>
-  <si>
-    <t>30 train and 30 test data. Train and test data are the same</t>
   </si>
   <si>
     <t>7,24</t>
@@ -73,8 +70,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="172" formatCode="0.000000000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -193,16 +190,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +215,341 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2828925" cy="3192412"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="142874"/>
+          <a:ext cx="2828925" cy="3192412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Observation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> features (in this order):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. x start point</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. y start point</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. x end point </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. y end point</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. touch duration </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. pressure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (was always 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. last Linear Acceleration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. Linear Acceleration (current)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> last Angular Velocity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10. Angular Velocity (current)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- 30 train and 30 test observations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> used</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. Train and test data are the same</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,7 +830,7 @@
     <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -515,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <f>1/(POWER(2,1))</f>
         <v>0.5</v>
@@ -535,11 +867,8 @@
         <f>SUM(30-D2)</f>
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A8" si="0">1/(POWER(2,1))</f>
         <v>0.5</v>
@@ -560,7 +889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -581,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -602,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -623,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -644,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:5">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -665,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <f>1/(POWER(2,2))</f>
         <v>0.25</v>
@@ -686,7 +1015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <f t="shared" ref="A10:A11" si="3">1/(POWER(2,2))</f>
         <v>0.25</v>
@@ -707,7 +1036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <f t="shared" si="3"/>
         <v>0.25</v>
@@ -728,7 +1057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <f t="shared" ref="A12:A15" si="5">1/(POWER(2,2))</f>
         <v>0.25</v>
@@ -749,7 +1078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <f t="shared" si="5"/>
         <v>0.25</v>
@@ -770,7 +1099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <f t="shared" si="5"/>
         <v>0.25</v>
@@ -791,7 +1120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:5">
       <c r="A15" s="7">
         <f t="shared" si="5"/>
         <v>0.25</v>
@@ -812,7 +1141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <f>1/(POWER(2,3))</f>
         <v>0.125</v>
@@ -1931,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2003,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2027,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2075,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2123,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2171,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2195,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2219,7 +2548,7 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2267,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2315,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2339,7 +2668,7 @@
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2363,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2435,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2459,7 +2788,7 @@
         <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2483,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2507,7 +2836,7 @@
         <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2531,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2555,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2603,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2651,7 +2980,7 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2675,11 +3004,12 @@
         <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Cross-Validation SVM/1 - 30obs 10features/cross-validation results.xlsx
+++ b/Cross-Validation SVM/1 - 30obs 10features/cross-validation results.xlsx
@@ -221,10 +221,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2828925" cy="3192412"/>
     <xdr:sp macro="" textlink="">
@@ -234,7 +234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="142874"/>
+          <a:off x="5810250" y="390524"/>
           <a:ext cx="2828925" cy="3192412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/Cross-Validation SVM/1 - 30obs 10features/cross-validation results.xlsx
+++ b/Cross-Validation SVM/1 - 30obs 10features/cross-validation results.xlsx
@@ -222,9 +222,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2828925" cy="3192412"/>
     <xdr:sp macro="" textlink="">
@@ -234,7 +234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="142874"/>
+          <a:off x="6276975" y="476249"/>
           <a:ext cx="2828925" cy="3192412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
